--- a/output/google_maps_data_Klinik_Sleman.xlsx
+++ b/output/google_maps_data_Klinik_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0812-3299-9200</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>-7.75009</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.75009</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.40924</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+DELIMA/@-7.7500897,110.3371421,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a591d4bc417fd:0x4e039b2289ffc2cb!8m2!3d-7.7500897!4d110.4092399!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11rwl1w4cd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+DELIMA/@-7.7500897,110.3371421,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a591d4bc417fd:0x4e039b2289ffc2cb!8m2!3d-7.7500897!4d110.4092399!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11rwl1w4cd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -552,25 +546,24 @@
           <t>0812-2941-585</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>-7.763673</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.763673</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.392015</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Andamari/@-7.7500897,110.3371421,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59a53590dbeb:0xedb658da74657fa6!8m2!3d-7.763673!4d110.3920151!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11g6mg_76d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Andamari/@-7.7500897,110.3371421,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59a53590dbeb:0xedb658da74657fa6!8m2!3d-7.763673!4d110.3920151!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11g6mg_76d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -589,25 +582,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.781909</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.781909</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.34557</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Poltekkes+Kemenkes+Yogyakarta/@-7.7819089,110.2734718,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5811816f8bfb:0x54d37d121fa324cc!8m2!3d-7.7819089!4d110.3455696!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bw2h2s75?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Poltekkes+Kemenkes+Yogyakarta/@-7.7819089,110.2734718,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5811816f8bfb:0x54d37d121fa324cc!8m2!3d-7.7819089!4d110.3455696!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bw2h2s75?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -634,25 +626,24 @@
           <t>0895-4189-30777</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>-7.76683</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.76683</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.382333</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+24+Jam+Dokter+Keluarga+Korpagama+UGM/@-7.7668303,110.3102355,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59b24d44962b:0x396dbc9e788bceed!8m2!3d-7.7668303!4d110.3823333!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11b6dc_k9b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+24+Jam+Dokter+Keluarga+Korpagama+UGM/@-7.7668303,110.3102355,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59b24d44962b:0x396dbc9e788bceed!8m2!3d-7.7668303!4d110.3823333!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11b6dc_k9b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -675,25 +666,24 @@
           <t>0812-2580-8415</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>-7.706374</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.706374</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.34759</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+PMI+Kabupaten+Sleman/@-7.7063739,110.2754919,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f2c6dea8e45:0xd197a27961cfb1d3!8m2!3d-7.7063739!4d110.3475897!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11sqvtr65w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+PMI+Kabupaten+Sleman/@-7.7063739,110.2754919,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f2c6dea8e45:0xd197a27961cfb1d3!8m2!3d-7.7063739!4d110.3475897!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11sqvtr65w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -720,25 +710,24 @@
           <t>0813-9245-6664</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>-7.756057</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.756057</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.408512</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Amanah+Health+Care+Praktek+Dokter+dan+Bidan+(Persalinan+24+Jam)/@-7.7560566,110.3364144,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a599e9d5a8ecd:0xfd3b738bae26d693!8m2!3d-7.7560566!4d110.4085122!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11c2nc67jb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Amanah+Health+Care+Praktek+Dokter+dan+Bidan+(Persalinan+24+Jam)/@-7.7560566,110.3364144,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a599e9d5a8ecd:0xfd3b738bae26d693!8m2!3d-7.7560566!4d110.4085122!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11c2nc67jb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -761,25 +750,24 @@
           <t>0818-0277-2208</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>-7.683765</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.683765</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.34035</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+0732+Sleman/@-7.6837653,110.2682522,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f7ad10ed9f5:0x5d7159067a33fca4!8m2!3d-7.6837653!4d110.34035!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cn3plkmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+0732+Sleman/@-7.6837653,110.2682522,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f7ad10ed9f5:0x5d7159067a33fca4!8m2!3d-7.6837653!4d110.34035!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cn3plkmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -806,25 +794,24 @@
           <t>0813-2888-3225</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>-7.736097</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.736097</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.47875</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+RH+Medika+Kalasan+(Umum+dan+BPJS)/@-7.736097,110.4066518,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5b0926b5069f:0x6e86304528393719!8m2!3d-7.736097!4d110.4787496!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cn9wwl83?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+RH+Medika+Kalasan+(Umum+dan+BPJS)/@-7.736097,110.4066518,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5b0926b5069f:0x6e86304528393719!8m2!3d-7.736097!4d110.4787496!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cn9wwl83?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -847,25 +834,24 @@
           <t>(0274) 869616</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>-7.700536</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.700536</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.341215</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+H.R.S+Dirdjo+Wardojo/@-7.7005357,110.2691173,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f5b69292bcf:0xd04a1d113d6c3a70!8m2!3d-7.7005357!4d110.3412151!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzt1xz0k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+H.R.S+Dirdjo+Wardojo/@-7.7005357,110.2691173,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f5b69292bcf:0xd04a1d113d6c3a70!8m2!3d-7.7005357!4d110.3412151!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzt1xz0k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -888,25 +874,24 @@
           <t>(0274) 797494</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>-7.793973</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.793973</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.322192</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+SIDO+WARAS/@-7.7939735,110.250094,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7af7f976ea4cd9:0xd5354270e6112344!8m2!3d-7.7939735!4d110.3221918!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11cn0n39yv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+SIDO+WARAS/@-7.7939735,110.250094,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7af7f976ea4cd9:0xd5354270e6112344!8m2!3d-7.7939735!4d110.3221918!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11cn0n39yv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -933,25 +918,24 @@
           <t>0821-3545-6784</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>-7.669857</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.669857</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.361953</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+SWA+:+Layanan+Medis,+BPJS+%26+Umum,+Dokter+Umum+%26+Gigi,+KIA,+USG,+Psikolog,+Khitan,+Fisioterapi,+Konsultasi+Laktasi,+dll/@-7.6698575,110.2898556,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5fa6dc643883:0x62f4569c783744ee!8m2!3d-7.6698575!4d110.3619534!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11b6f068wd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+SWA+:+Layanan+Medis,+BPJS+%26+Umum,+Dokter+Umum+%26+Gigi,+KIA,+USG,+Psikolog,+Khitan,+Fisioterapi,+Konsultasi+Laktasi,+dll/@-7.6698575,110.2898556,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5fa6dc643883:0x62f4569c783744ee!8m2!3d-7.6698575!4d110.3619534!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11b6f068wd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -974,25 +958,24 @@
           <t>0851-0040-1890</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.716069</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.716069</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.407016</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Satria+Gadingan/@-7.7160688,110.3349181,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5937fe4f62e3:0xdfa29acdb1f4d935!8m2!3d-7.7160688!4d110.4070159!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzyl1wq4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Satria+Gadingan/@-7.7160688,110.3349181,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5937fe4f62e3:0xdfa29acdb1f4d935!8m2!3d-7.7160688!4d110.4070159!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzyl1wq4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1019,25 +1002,24 @@
           <t>0858-4813-4956</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F14" t="n">
-        <v>3.9</v>
+        <v>-7.728184</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.728184</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.399474</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Chandra+Brata+24+jam/@-7.7160688,110.3349181,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a593dd19ef33f:0x757ff8b253b1925d!8m2!3d-7.728184!4d110.3994743!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11b6dffbtb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Chandra+Brata+24+jam/@-7.7160688,110.3349181,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a593dd19ef33f:0x757ff8b253b1925d!8m2!3d-7.728184!4d110.3994743!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11b6dffbtb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1064,25 +1046,24 @@
           <t>(0274) 6499649</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>-7.799339</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.799339</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.3297</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+PMI+DIY/@-7.7993388,110.2576018,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7af9c881176c97:0xa2a9ea24243790fb!8m2!3d-7.7993388!4d110.3296996!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11mv4smwq8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+PMI+DIY/@-7.7993388,110.2576018,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7af9c881176c97:0xa2a9ea24243790fb!8m2!3d-7.7993388!4d110.3296996!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11mv4smwq8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1105,25 +1086,24 @@
           <t>(0274) 488314</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>-7.761236</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.761236</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.406882</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Bangun+Husada/@-7.761236,110.3347843,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5999bdc501b9:0x10da712850cf163c!8m2!3d-7.761236!4d110.4068821!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11d_z099t7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Bangun+Husada/@-7.761236,110.3347843,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5999bdc501b9:0x10da712850cf163c!8m2!3d-7.761236!4d110.4068821!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11d_z099t7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1146,25 +1126,24 @@
           <t>(0274) 4461804</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>-7.760076</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.760076</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.433231</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+MATAHARI/@-7.761236,110.3347843,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5a2f399e731d:0x3375d75b3fd157c2!8m2!3d-7.7600762!4d110.4332308!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11hbnw1t37?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+MATAHARI/@-7.761236,110.3347843,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5a2f399e731d:0x3375d75b3fd157c2!8m2!3d-7.7600762!4d110.4332308!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11hbnw1t37?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1187,25 +1166,24 @@
           <t>0812-2607-1797</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>-7.700697</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.700697</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.340483</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Utama+Rawat+Inap+Ibu+dan+anak+Ibunda/@-7.7006971,110.2683849,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f5b72baa2e3:0x21b321aadbf2a648!8m2!3d-7.7006971!4d110.3404827!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11c1lxnvyw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Utama+Rawat+Inap+Ibu+dan+anak+Ibunda/@-7.7006971,110.2683849,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f5b72baa2e3:0x21b321aadbf2a648!8m2!3d-7.7006971!4d110.3404827!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11c1lxnvyw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1228,25 +1206,24 @@
           <t>0821-3606-3151</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>3.8</v>
+        <v>-7.675883</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.675883</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.304244</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+FIA/@-7.6758828,110.2321464,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7af5a07fad541d:0x6967e95dd77baea4!8m2!3d-7.6758828!4d110.3042442!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cjk4x7rj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+FIA/@-7.6758828,110.2321464,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7af5a07fad541d:0x6967e95dd77baea4!8m2!3d-7.6758828!4d110.3042442!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cjk4x7rj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1265,25 +1242,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>-7.752637</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.752637</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.448529</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+%22Permata+Keluarga%22/@-7.7526374,110.3764307,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5a3512b60bb5:0xdda1712ad496031b!8m2!3d-7.7526374!4d110.4485285!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11h2n6zfwc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+%22Permata+Keluarga%22/@-7.7526374,110.3764307,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5a3512b60bb5:0xdda1712ad496031b!8m2!3d-7.7526374!4d110.4485285!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11h2n6zfwc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1310,25 +1286,24 @@
           <t>0811-2544-664</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.728442</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.728442</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.400126</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Keluarga+Sembada/@-7.728442,110.3280282,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a593f24abbdf3:0xf3a3ce803680a38b!8m2!3d-7.728442!4d110.400126!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6wd7t4n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Keluarga+Sembada/@-7.728442,110.3280282,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a593f24abbdf3:0xf3a3ce803680a38b!8m2!3d-7.728442!4d110.400126!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6wd7t4n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1351,25 +1326,24 @@
           <t>0813-5049-0509</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.3</v>
+        <v>-7.814725</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.814725</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.481943</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Naranda/@-7.8147251,110.4098451,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a505b952f9f49:0xca4c5ffd5ea11930!8m2!3d-7.8147251!4d110.4819429!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11fz9_k_tf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Naranda/@-7.8147251,110.4098451,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a505b952f9f49:0xca4c5ffd5ea11930!8m2!3d-7.8147251!4d110.4819429!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11fz9_k_tf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1392,25 +1366,24 @@
           <t>0812-1367-3515</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>-7.739618</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.739618</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.364906</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nusmile+Klinik/@-7.7396185,110.292808,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5983aa6b2737:0x2aab2828c1f7fe2c!8m2!3d-7.7396185!4d110.3649058!15sCg1LbGluaWsgU2xlbWFukgEGZG9jdG9y4AEA!16s%2Fg%2F11fjb2df92?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nusmile+Klinik/@-7.7396185,110.292808,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5983aa6b2737:0x2aab2828c1f7fe2c!8m2!3d-7.7396185!4d110.3649058!15sCg1LbGluaWsgU2xlbWFukgEGZG9jdG9y4AEA!16s%2Fg%2F11fjb2df92?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1433,25 +1406,24 @@
           <t>(0274) 867363</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F24" t="n">
-        <v>3.8</v>
+        <v>-7.690278</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.690278</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.339314</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Widuri/@-7.7396185,110.292808,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f668f006a39:0xa09355198b0c52e4!8m2!3d-7.6902781!4d110.3393142!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11c2qj5k9p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Widuri/@-7.7396185,110.292808,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5f668f006a39:0xa09355198b0c52e4!8m2!3d-7.6902781!4d110.3393142!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11c2qj5k9p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -1470,25 +1442,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.9</v>
+        <v>-7.754093</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.754093</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.386043</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+pratama+Yonif+403/@-7.7396185,110.292808,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5908797cc9d5:0x13414e3dcc61e4b5!8m2!3d-7.7540929!4d110.3860429!15sCg1LbGluaWsgU2xlbWFukgEVcHVibGljX21lZGljYWxfY2VudGVy4AEA!16s%2Fg%2F11c0r4xqys?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+pratama+Yonif+403/@-7.7396185,110.292808,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5908797cc9d5:0x13414e3dcc61e4b5!8m2!3d-7.7540929!4d110.3860429!15sCg1LbGluaWsgU2xlbWFukgEVcHVibGljX21lZGljYWxfY2VudGVy4AEA!16s%2Fg%2F11c0r4xqys?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1515,25 +1486,24 @@
           <t>(0274) 551412</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.1</v>
+        <v>-7.772644</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.772644</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.375098</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gadjah+Mada+Medical+Center+(GMC)/@-7.7396185,110.292808,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a584a517ff77b:0x133165a874cf7fff!8m2!3d-7.7726436!4d110.375098!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzy5gn1d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gadjah+Mada+Medical+Center+(GMC)/@-7.7396185,110.292808,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a584a517ff77b:0x133165a874cf7fff!8m2!3d-7.7726436!4d110.375098!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzy5gn1d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1556,25 +1526,24 @@
           <t>0822-2604-2649</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>-7.761301</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.761301</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.406838</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Bangun+Husada/@-7.7613011,110.3347398,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59002ad67d2f:0xe0c065f124cfb5d0!8m2!3d-7.7613011!4d110.4068376!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11y6qh24v9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Bangun+Husada/@-7.7613011,110.3347398,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59002ad67d2f:0xe0c065f124cfb5d0!8m2!3d-7.7613011!4d110.4068376!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11y6qh24v9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1597,25 +1566,24 @@
           <t>0812-2984-545</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.3</v>
+        <v>-7.771329</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.771329</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.348408</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Dokter+Ernawati/@-7.7713287,110.2763104,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a586c010bf40d:0x6930b276684eac!8m2!3d-7.7713287!4d110.3484082!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cm08j_4x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Dokter+Ernawati/@-7.7713287,110.2763104,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a586c010bf40d:0x6930b276684eac!8m2!3d-7.7713287!4d110.3484082!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cm08j_4x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1642,25 +1610,24 @@
           <t>0813-1104-2802</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>-7.780041</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.780041</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.453049</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Spesialis+Anugerah+Ibu+Yogyakarta/@-7.7800412,110.3809515,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5b3fee3fb7e1:0x46474460d6d376a2!8m2!3d-7.7800412!4d110.4530493!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11sdbdlg93?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Spesialis+Anugerah+Ibu+Yogyakarta/@-7.7800412,110.3809515,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5b3fee3fb7e1:0x46474460d6d376a2!8m2!3d-7.7800412!4d110.4530493!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11sdbdlg93?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1683,25 +1650,24 @@
           <t>0819-0403-4227</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.9</v>
+        <v>-7.649676</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.649676</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.31824</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+H.M.+Sosromiharjo/@-7.6496762,110.2461421,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7af54359fe64a9:0xa732b87921784b4a!8m2!3d-7.6496762!4d110.3182399!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cjk35j6q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+H.M.+Sosromiharjo/@-7.6496762,110.2461421,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7af54359fe64a9:0xa732b87921784b4a!8m2!3d-7.6496762!4d110.3182399!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cjk35j6q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1720,25 +1686,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F31" t="n">
-        <v>3.8</v>
+        <v>-7.753048</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.753048</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.384266</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+24+Jam+Kimia+Farma/@-7.7530484,110.312168,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5900b38f7741:0xee790c01825e1521!8m2!3d-7.7530484!4d110.3842658!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f3m9gbng?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+24+Jam+Kimia+Farma/@-7.7530484,110.312168,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5900b38f7741:0xee790c01825e1521!8m2!3d-7.7530484!4d110.3842658!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f3m9gbng?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1761,25 +1726,24 @@
           <t>0812-2950-562</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.2</v>
+        <v>-7.777901</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.777901</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.408834</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Mei+Muhartati.+S+SiT/@-7.7530484,110.312168,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59e94cf7b60f:0x12abf0f86effba51!8m2!3d-7.7779014!4d110.4088335!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzxhlnp0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Mei+Muhartati.+S+SiT/@-7.7530484,110.312168,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59e94cf7b60f:0x12abf0f86effba51!8m2!3d-7.7779014!4d110.4088335!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzxhlnp0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1806,25 +1770,24 @@
           <t>0812-2866-0300</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>-7.806517</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.806517</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.350446</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+24+Jam+Firdaus/@-7.8065174,110.2783484,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a57f2729c8429:0xa918fd6f5e4f4e53!8m2!3d-7.8065174!4d110.3504462!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bvv5czn3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+24+Jam+Firdaus/@-7.8065174,110.2783484,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a57f2729c8429:0xa918fd6f5e4f4e53!8m2!3d-7.8065174!4d110.3504462!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bvv5czn3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -1843,25 +1806,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>-7.740149</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.740149</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.434518</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Dr.+Budi+Darmono/@-7.7401491,110.3624205,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5bda663b6f8b:0x5acd30eec81657cf!8m2!3d-7.7401491!4d110.4345183!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11gfb44lbc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Dr.+Budi+Darmono/@-7.7401491,110.3624205,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5bda663b6f8b:0x5acd30eec81657cf!8m2!3d-7.7401491!4d110.4345183!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11gfb44lbc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1884,25 +1846,24 @@
           <t>(0274) 867312</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.6</v>
+        <v>-7.747978</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.747978</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.367512</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Idola/@-7.7479776,110.295414,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a58fa6e5dfbad:0x9ac48f0777bb6bf4!8m2!3d-7.7479776!4d110.3675118!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzw8hjyw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1921,25 +1882,24 @@
           <t>0823-2229-5835</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>-7.742659</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.742659</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.374604</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/dr.+Wahyudi+Istiono+(Layanan+BPJS)/@-7.7479776,110.295414,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59c91dcb7725:0xa9988670393d66a!8m2!3d-7.7426591!4d110.3746035!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11tfhh_0ql?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/dr.+Wahyudi+Istiono+(Layanan+BPJS)/@-7.7479776,110.295414,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59c91dcb7725:0xa9988670393d66a!8m2!3d-7.7426591!4d110.3746035!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11tfhh_0ql?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1962,21 +1922,20 @@
           <t>(0274) 7166057</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
+      <c r="E37" t="n">
         <v>5</v>
       </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Wahyuni/@-7.7479776,110.295414,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a584491e4bcb7:0x13fc367176c0b32!8m2!3d-7.767294!4d110.361736!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzr33ssj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Wahyuni/@-7.7479776,110.295414,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a584491e4bcb7:0x13fc367176c0b32!8m2!3d-7.767294!4d110.361736!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzr33ssj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2000,22 +1959,21 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-7.758485</v>
+      </c>
       <c r="G38" t="n">
-        <v>-7.758485</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.381667</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Yogyakarta/@-7.7479776,110.295414,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59ab9da92f63:0x17d600c5f1ad279c!8m2!3d-7.7584855!4d110.3816673!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F11bc7qtj_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2034,25 +1992,24 @@
           <t>(0274) 882619</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>-7.777618</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.777618</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.383716</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Bina+Usada/@-7.7479776,110.295414,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59cbce3161bb:0x4149cf89e576e868!8m2!3d-7.7776176!4d110.3837162!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1hc764by3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Bina+Usada/@-7.7479776,110.295414,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59cbce3161bb:0x4149cf89e576e868!8m2!3d-7.7776176!4d110.3837162!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1hc764by3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2075,25 +2032,24 @@
           <t>0821-3442-3542</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.2</v>
+        <v>-7.765274</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.765274</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.426816</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+DK+~+Klinik+Vaksinasi+Internasional/@-7.7652736,110.3547186,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5a277acd32e5:0x6f236653afcaed7f!8m2!3d-7.7652736!4d110.4268164!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6nhgk0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+DK+~+Klinik+Vaksinasi+Internasional/@-7.7652736,110.3547186,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5a277acd32e5:0x6f236653afcaed7f!8m2!3d-7.7652736!4d110.4268164!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6nhgk0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -2116,25 +2072,24 @@
           <t>0815-7811-0615</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>-7.731062</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.731062</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.382276</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Ananda/@-7.7310623,110.3101781,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a591883b5ca87:0xf3916a0117ff5cee!8m2!3d-7.7310623!4d110.3822759!15sCg1LbGluaWsgU2xlbWFukgEMYmlydGhfY2VudGVy4AEA!16s%2Fg%2F1pzpvvl6f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Ananda/@-7.7310623,110.3101781,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a591883b5ca87:0xf3916a0117ff5cee!8m2!3d-7.7310623!4d110.3822759!15sCg1LbGluaWsgU2xlbWFukgEMYmlydGhfY2VudGVy4AEA!16s%2Fg%2F1pzpvvl6f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2153,25 +2108,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>-7.763143</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.763143</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.407607</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+UPN+%22Veteran%22/@-7.7310623,110.3101781,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59baac03fed9:0xa3e3439fa7190661!8m2!3d-7.7631427!4d110.4076071!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMk9WQkhablYzUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11f60y1ydw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+UPN+%22Veteran%22/@-7.7310623,110.3101781,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59baac03fed9:0xa3e3439fa7190661!8m2!3d-7.7631427!4d110.4076071!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMk9WQkhablYzUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11f60y1ydw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2198,25 +2152,24 @@
           <t>(0274) 587333</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>2.3</v>
+      </c>
       <c r="F43" t="n">
-        <v>2.3</v>
+        <v>-7.76857</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.76857</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.373509</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Edelwise+RS.+Sardjito/@-7.7310623,110.3101781,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a584c499d4e1f:0x92de8b6551c6794a!8m2!3d-7.7685704!4d110.3735091!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzq5b6dw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Edelwise+RS.+Sardjito/@-7.7310623,110.3101781,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a584c499d4e1f:0x92de8b6551c6794a!8m2!3d-7.7685704!4d110.3735091!15sCg1LbGluaWsgU2xlbWFukgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzq5b6dw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2239,25 +2192,24 @@
           <t>(0274) 2835312</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.4</v>
+        <v>-7.753666</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.753666</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.433969</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DPP+dr.+Wisnu+Murti+Yani,+M.Sc.,+DK/@-7.753666,110.3618716,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5be14781e69b:0x5871ba84986a5eb6!8m2!3d-7.753666!4d110.4339694!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQZkb2N0b3KaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjBkMWxRVVdkUlJSQULgAQD6AQQIABA0!16s%2Fg%2F11qrklhz86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DPP+dr.+Wisnu+Murti+Yani,+M.Sc.,+DK/@-7.753666,110.3618716,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5be14781e69b:0x5871ba84986a5eb6!8m2!3d-7.753666!4d110.4339694!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQZkb2N0b3KaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjBkMWxRVVdkUlJSQULgAQD6AQQIABA0!16s%2Fg%2F11qrklhz86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2284,25 +2236,24 @@
           <t>0813-1313-4433</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.9</v>
+        <v>-7.75598</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.75598</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.395102</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MYDERVIA+%7C+Dermatologist+Jogja/@-7.7559798,110.3230045,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59a2411329ef:0x2f039801dc6387cb!8m2!3d-7.7559798!4d110.3951023!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARJzcGVjaWFsaXplZF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTNkWFZYT1hsQlJSQULgAQD6AQQIABBE!16s%2Fg%2F11pyc41kp2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MYDERVIA+%7C+Dermatologist+Jogja/@-7.7559798,110.3230045,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59a2411329ef:0x2f039801dc6387cb!8m2!3d-7.7559798!4d110.3951023!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARJzcGVjaWFsaXplZF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTNkWFZYT1hsQlJSQULgAQD6AQQIABBE!16s%2Fg%2F11pyc41kp2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2329,25 +2280,24 @@
           <t>(0274) 886863</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.1</v>
+        <v>-7.753903</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.753903</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.383701</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+%26+Laboratorium+Parahita+Yogyakarta+Kaliurang/@-7.7559798,110.3230045,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5e7d9bdb7357:0xe00bc8bd73fbeec7!8m2!3d-7.7539032!4d110.3837012!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQttZWRpY2FsX2xhYpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSd2FsOUxVazFuRUFF4AEA-gEECAAQLw!16s%2Fg%2F1pzrfps_6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+%26+Laboratorium+Parahita+Yogyakarta+Kaliurang/@-7.7559798,110.3230045,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5e7d9bdb7357:0xe00bc8bd73fbeec7!8m2!3d-7.7539032!4d110.3837012!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQttZWRpY2FsX2xhYpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSd2FsOUxVazFuRUFF4AEA-gEECAAQLw!16s%2Fg%2F1pzrfps_6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -2366,25 +2316,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.3</v>
+        <v>-7.728481</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.728481</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.435061</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Assyifa/@-7.728481,110.3629629,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5be71d2ac6ed:0x44f0e8af4ce655a7!8m2!3d-7.728481!4d110.4350607!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNNU1uWk1NM0puUlJBQuABAPoBBAgAECs!16s%2Fg%2F11c6z0s7sx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Assyifa/@-7.728481,110.3629629,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5be71d2ac6ed:0x44f0e8af4ce655a7!8m2!3d-7.728481!4d110.4350607!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNNU1uWk1NM0puUlJBQuABAPoBBAgAECs!16s%2Fg%2F11c6z0s7sx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2407,25 +2356,24 @@
           <t>(0274) 889476</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.8</v>
+        <v>-7.749079</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.749079</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.378731</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+DST+Skin+%26+Slimming+Care/@-7.7490788,110.3066332,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59020016984b:0xfeb61a11db2323f6!8m2!3d-7.7490788!4d110.378731!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5tTFhSNVJWUkJFQUXgAQD6AQQIABBB!16s%2Fg%2F11fz9y180r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+DST+Skin+%26+Slimming+Care/@-7.7490788,110.3066332,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59020016984b:0xfeb61a11db2323f6!8m2!3d-7.7490788!4d110.378731!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5tTFhSNVJWUkJFQUXgAQD6AQQIABBB!16s%2Fg%2F11fz9y180r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2452,25 +2400,24 @@
           <t>0851-5602-6377</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>-7.791937</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.791937</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.399623</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Ibu+dan+Anak+Kurnia+KIKU/@-7.7490788,110.3066332,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59a705722f57:0x668ee7a14525588e!8m2!3d-7.7919374!4d110.3996234!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARJzcGVjaWFsaXplZF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjFNbkZpTkhkQlJSQULgAQD6AQQIABA9!16s%2Fg%2F11ppy0zlny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Ibu+dan+Anak+Kurnia+KIKU/@-7.7490788,110.3066332,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59a705722f57:0x668ee7a14525588e!8m2!3d-7.7919374!4d110.3996234!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARJzcGVjaWFsaXplZF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjFNbkZpTkhkQlJSQULgAQD6AQQIABA9!16s%2Fg%2F11ppy0zlny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -2493,25 +2440,24 @@
           <t>0881-0264-76205</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-7.741153</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.741153</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.398533</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+Dokter+Umum+(Nyiur+Hijau)/@-7.7490788,110.3066332,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59ca2ad62d3b:0x1c39cc37571ff4f1!8m2!3d-7.7411532!4d110.3985327!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARRnZW5lcmFsX3ByYWN0aXRpb25lcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSd2IxcDJiVWgzRUFF4AEA-gEECAAQLg!16s%2Fg%2F11trwq65wk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+Dokter+Umum+(Nyiur+Hijau)/@-7.7490788,110.3066332,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59ca2ad62d3b:0x1c39cc37571ff4f1!8m2!3d-7.7411532!4d110.3985327!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARRnZW5lcmFsX3ByYWN0aXRpb25lcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSd2IxcDJiVWgzRUFF4AEA-gEECAAQLg!16s%2Fg%2F11trwq65wk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2538,25 +2484,24 @@
           <t>(0274) 884226</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.7</v>
+        <v>-7.752256</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.752256</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.382325</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Labkesda+Sleman+(UPTD+Laboratorium+Kesehatan+Sleman)/@-7.7490788,110.3066332,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a590114fb66f5:0x36f1bdc7a0b3d49c!8m2!3d-7.7522564!4d110.3823245!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaWNWOUhlVXRuRUFF4AEA-gEECAAQNA!16s%2Fg%2F11gbkvynv3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Labkesda+Sleman+(UPTD+Laboratorium+Kesehatan+Sleman)/@-7.7490788,110.3066332,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a590114fb66f5:0x36f1bdc7a0b3d49c!8m2!3d-7.7522564!4d110.3823245!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaWNWOUhlVXRuRUFF4AEA-gEECAAQNA!16s%2Fg%2F11gbkvynv3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2579,25 +2524,24 @@
           <t>0822-2418-2345</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.1</v>
+        <v>-7.753251</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.753251</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.442744</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Mitra+Keluarga+Hypnotherapy/@-7.7532507,110.3706462,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5a3373074c53:0x97b7bebe9f722ab7!8m2!3d-7.7532507!4d110.442744!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdE5VeExhbkZuUlJBQuABAPoBBAgAECg!16s%2Fg%2F11c6_wxc3w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Mitra+Keluarga+Hypnotherapy/@-7.7532507,110.3706462,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5a3373074c53:0x97b7bebe9f722ab7!8m2!3d-7.7532507!4d110.442744!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdE5VeExhbkZuUlJBQuABAPoBBAgAECg!16s%2Fg%2F11c6_wxc3w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -2621,22 +2565,21 @@
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>-7.762062</v>
+      </c>
       <c r="G53" t="n">
-        <v>-7.762062</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.338938</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/klinik+kuret+cabang+sleman+dr.+arisha+sp.og/@-7.7620625,110.2668397,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a593cb34bd509:0xc3914739a907f6ff!8m2!3d-7.7620625!4d110.3389375!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11y33yjbmk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2652,22 +2595,21 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>-7.741082</v>
+      </c>
       <c r="G54" t="n">
-        <v>-7.741082</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.386958</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KLINIK+WISATA+KESEHATAN+DOKTER+BUDI/@-7.7410815,110.3148599,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a591bd13789b9:0x4cf792489907a67c!8m2!3d-7.7410815!4d110.3869577!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11v3gps226?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2686,25 +2628,24 @@
           <t>0856-4148-0541</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>-7.709945</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.709945</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.372556</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+dr.+Bayu+Suhartadi,+Sp.Bp-RE/@-7.7410815,110.3148599,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5fb3c753eedf:0xfce3a2991146585f!8m2!3d-7.7099449!4d110.3725557!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARJzcGVjaWFsaXplZF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnljSFo2V0ZWbkVBReABAPoBBAh8EEQ!16s%2Fg%2F11vymrnh8p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+dr.+Bayu+Suhartadi,+Sp.Bp-RE/@-7.7410815,110.3148599,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5fb3c753eedf:0xfce3a2991146585f!8m2!3d-7.7099449!4d110.3725557!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARJzcGVjaWFsaXplZF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnljSFo2V0ZWbkVBReABAPoBBAh8EEQ!16s%2Fg%2F11vymrnh8p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2723,25 +2664,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-7.776848</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.776848</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.376276</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Umum+Onder+de+Bogen/@-7.7410815,110.3148599,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a598566599e69:0xf973b9e3c7922b6a!8m2!3d-7.7768483!4d110.3762755!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARdjb21tdW5pdHlfaGVhbHRoX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc01YSmZMVGgzUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11h5lz9896?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Umum+Onder+de+Bogen/@-7.7410815,110.3148599,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a598566599e69:0xf973b9e3c7922b6a!8m2!3d-7.7768483!4d110.3762755!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARdjb21tdW5pdHlfaGVhbHRoX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc01YSmZMVGgzUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11h5lz9896?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2768,25 +2708,24 @@
           <t>(0274) 5018221</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.2</v>
+        <v>-7.767314</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.767314</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.367972</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RSU+Sakina+Idaman/@-7.7410815,110.3148599,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a584fc9a9bb83:0x681f30be61c4ee93!8m2!3d-7.7673141!4d110.3679718!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARBnZW5lcmFsX2hvc3BpdGFsmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJPY0c5ZmRrbDNFQUXgAQD6AQQIABA7!16s%2Fg%2F1hc2clcbw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RSU+Sakina+Idaman/@-7.7410815,110.3148599,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a584fc9a9bb83:0x681f30be61c4ee93!8m2!3d-7.7673141!4d110.3679718!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARBnZW5lcmFsX2hvc3BpdGFsmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJPY0c5ZmRrbDNFQUXgAQD6AQQIABA7!16s%2Fg%2F1hc2clcbw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -2805,25 +2744,24 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.75237</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.75237</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.423834</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+KURNIA/@-7.75237,110.3517358,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59802f2bfd5d:0x4d1bb16f3bab85c9!8m2!3d-7.75237!4d110.4238336!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11y1f4q0vw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+KURNIA/@-7.75237,110.3517358,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59802f2bfd5d:0x4d1bb16f3bab85c9!8m2!3d-7.75237!4d110.4238336!15sCg1LbGluaWsgU2xlbWFukgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11y1f4q0vw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2846,25 +2784,24 @@
           <t>0817-7923-1367</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-7.751287</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.751287</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.386446</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kecantikan+Comfiderma+Aesthetic/@-7.7512874,110.3143483,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59aa66fa363d:0xfabb9d0b982998db!8m2!3d-7.7512874!4d110.3864461!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14TVc5aWJFUkJFQUXgAQD6AQQIABBD!16s%2Fg%2F11tngl5yj1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kecantikan+Comfiderma+Aesthetic/@-7.7512874,110.3143483,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59aa66fa363d:0xfabb9d0b982998db!8m2!3d-7.7512874!4d110.3864461!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14TVc5aWJFUkJFQUXgAQD6AQQIABBD!16s%2Fg%2F11tngl5yj1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2887,25 +2824,24 @@
           <t>0857-4028-2292</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.1</v>
+        <v>-7.812098</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.812098</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.485328</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Sayang+Keluarga/@-7.8120984,110.41323,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5066659664fb:0xe58261f2ab2f30ec!8m2!3d-7.8120984!4d110.4853278!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQhob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeE1DMTZlVWhSRUFF4AEA-gEECAAQNA!16s%2Fg%2F11bxg8vwty?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Sayang+Keluarga/@-7.8120984,110.41323,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a5066659664fb:0xe58261f2ab2f30ec!8m2!3d-7.8120984!4d110.4853278!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SAQhob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeE1DMTZlVWhSRUFF4AEA-gEECAAQNA!16s%2Fg%2F11bxg8vwty?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2928,25 +2864,24 @@
           <t>0819-0246-9090</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.5</v>
+        <v>-7.74599</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.74599</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.388706</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Reta+Beauty+Clinic+Yogyakarta/@-7.7459905,110.3166077,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59057113ad49:0xae5294d0759fb3a5!8m2!3d-7.7459905!4d110.3887055!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5FYlUxZlpVcG5FQUXgAQD6AQQIABAx!16s%2Fg%2F11hcdv97pg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Reta+Beauty+Clinic+Yogyakarta/@-7.7459905,110.3166077,13z/data=!4m10!1m2!2m1!1sKlinik+Sleman!3m6!1s0x2e7a59057113ad49:0xae5294d0759fb3a5!8m2!3d-7.7459905!4d110.3887055!15sCg1LbGluaWsgU2xlbWFuWg8iDWtsaW5payBzbGVtYW6SARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5FYlUxZlpVcG5FQUXgAQD6AQQIABAx!16s%2Fg%2F11hcdv97pg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
